--- a/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
@@ -476,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-5,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-2,05</t>
+          <t>3,37</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,14</t>
+          <t>-0,72</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-9,55; 16,12</t>
+          <t>-23,79; 13,57</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 4,83</t>
+          <t>-8,81; 13,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,41; 7,83</t>
+          <t>-11,35; 9,49</t>
         </is>
       </c>
     </row>
@@ -602,17 +602,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>-20,27%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>12,61%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-0,56%</t>
+          <t>-2,65%</t>
         </is>
       </c>
     </row>
@@ -625,17 +625,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-37,48; 86,41</t>
+          <t>-65,03; 80,59</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-30,01; 19,32</t>
+          <t>-27,18; 65,65</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-23,27; 33,66</t>
+          <t>-34,4; 41,41</t>
         </is>
       </c>
     </row>
@@ -652,17 +652,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,09</t>
+          <t>-1,9</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-4,91</t>
+          <t>-3,06</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-2,54</t>
+          <t>-2,59</t>
         </is>
       </c>
     </row>
@@ -675,17 +675,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 4,39</t>
+          <t>-9,04; 4,55</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-10,07; -0,06</t>
+          <t>-11,18; 4,22</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-6,13; 1,19</t>
+          <t>-8,31; 2,52</t>
         </is>
       </c>
     </row>
@@ -698,17 +698,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-0,48%</t>
+          <t>-9,58%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-14,7%</t>
+          <t>-9,31%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-9,75%</t>
+          <t>-9,72%</t>
         </is>
       </c>
     </row>
@@ -721,17 +721,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-23,14; 26,97</t>
+          <t>-38,79; 27,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-28,11; -0,25</t>
+          <t>-30,39; 15,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-22,13; 5,01</t>
+          <t>-26,57; 11,0</t>
         </is>
       </c>
     </row>
@@ -748,17 +748,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-3,26</t>
+          <t>-0,45</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-1,96</t>
+          <t>-1,17</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-2,56</t>
+          <t>-1,1</t>
         </is>
       </c>
     </row>
@@ -771,17 +771,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 3,09</t>
+          <t>-7,09; 7,22</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,02</t>
+          <t>-8,44; 6,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 1,6</t>
+          <t>-6,65; 4,62</t>
         </is>
       </c>
     </row>
@@ -794,17 +794,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-17,37%</t>
+          <t>-2,94%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-7,41%</t>
+          <t>-4,14%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>-4,94%</t>
         </is>
       </c>
     </row>
@@ -817,24 +817,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-42,1; 19,65</t>
+          <t>-39,55; 62,97</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-26,49; 17,64</t>
+          <t>-26,11; 27,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-27,74; 8,71</t>
+          <t>-27,12; 23,47</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -849,12 +849,12 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>-6,55</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-2,15</t>
+          <t>-3,63</t>
         </is>
       </c>
     </row>
@@ -867,17 +867,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,5; 3,39</t>
+          <t>-5,86; 4,85</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-7,15; -0,38</t>
+          <t>-11,01; -1,4</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-4,92; 0,6</t>
+          <t>-7,04; 0,19</t>
         </is>
       </c>
     </row>
@@ -890,17 +890,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-3,42%</t>
+          <t>-3,48%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-11,75%</t>
+          <t>-21,76%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-8,63%</t>
+          <t>-14,8%</t>
         </is>
       </c>
     </row>
@@ -913,25 +913,129 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-21,52; 19,15</t>
+          <t>-28,18; 29,11</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-22,61; -0,99</t>
+          <t>-34,53; -5,29</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 2,54</t>
+          <t>-27,47; 1,3</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>-1,38</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>-3,3</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-2,37</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-4,73; 2,3</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 0,38</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-4,89; -0,03</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>-7,15%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>-10,96%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-9,57%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-23,22; 12,72</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-21,75; 0,95</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-18,64; -0,04</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>

--- a/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P20_3_R-Estudios-trans_camb.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -97,7 +100,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -110,6 +113,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,7 +485,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -554,287 +563,211 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-5,66</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>3,37</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-0,72</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-6.249164650484415</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>2.410708287144125</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>-1.470093628666852</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-23,79; 13,57</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-8,81; 13,81</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-11,35; 9,49</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-24.50085543347026</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-9.713376842916352</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-11.9821805624599</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-20,27%</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>12,61%</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,65%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.35681910349192</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.75068103442155</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>8.235090982726565</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-65,03; 80,59</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-27,18; 65,65</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-34,4; 41,41</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C7" s="6" t="n">
+        <v>-0.2239203226239442</v>
+      </c>
+      <c r="D7" s="6" t="n">
+        <v>0.09028801656050413</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>-0.05392750453775592</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Secundaria o FP grado sup</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>-1,9</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-3,06</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-2,59</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="6" t="n">
+        <v>-0.6433574968882602</v>
+      </c>
+      <c r="D8" s="6" t="n">
+        <v>-0.2985567852432201</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.3661885282181347</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-9,04; 4,55</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-11,18; 4,22</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-8,31; 2,52</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="6" t="n">
+        <v>0.6397091822483475</v>
+      </c>
+      <c r="D9" s="6" t="n">
+        <v>0.6121177478010154</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.3696930924312038</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-9,58%</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-9,31%</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-9,72%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>-1.998154186676115</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-1.842460405078716</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-2.018024872373267</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-38,79; 27,82</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-30,39; 15,14</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-26,57; 11,0</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-9.081228684467856</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-9.815284495570648</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-7.507762585460573</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>-0,45</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-1,17</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-1,1</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>4.458929757732279</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>5.563443226363697</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>3.212467325322557</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>-7,09; 7,22</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-8,44; 6,57</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-6,65; 4,62</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C13" s="6" t="n">
+        <v>-0.1006564850629635</v>
+      </c>
+      <c r="D13" s="6" t="n">
+        <v>-0.05605592316307617</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>-0.07567825568791704</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-2,94%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-4,14%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-4,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="6" t="n">
+        <v>-0.3929571652613779</v>
+      </c>
+      <c r="D14" s="6" t="n">
+        <v>-0.2684106289081101</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.2502009315317375</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-39,55; 62,97</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-26,11; 27,05</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-27,12; 23,47</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="6" t="n">
+        <v>0.2678674415162043</v>
+      </c>
+      <c r="D15" s="6" t="n">
+        <v>0.1966663086330304</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.1346219180599337</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -842,202 +775,221 @@
           <t>Cambio absoluto (puntos porcentuales)</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>-0,66</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>-6,55</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-3,63</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>-0.06265947191076426</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>-1.650381336451878</v>
+      </c>
+      <c r="E16" s="5" t="n">
+        <v>-1.22345069680741</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>-5,86; 4,85</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-11,01; -1,4</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-7,04; 0,19</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-7.044085993857199</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>-8.878847102941929</v>
+      </c>
+      <c r="E17" s="5" t="n">
+        <v>-6.786658596706885</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>-3,48%</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="inlineStr">
-        <is>
-          <t>-21,76%</t>
-        </is>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>-14,8%</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>7.668682479332897</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>6.128962778442342</v>
+      </c>
+      <c r="E18" s="5" t="n">
+        <v>4.451305636763236</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>-28,18; 29,11</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="inlineStr">
-        <is>
-          <t>-34,53; -5,29</t>
-        </is>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>-27,47; 1,3</t>
-        </is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C19" s="6" t="n">
+        <v>-0.00412394462558317</v>
+      </c>
+      <c r="D19" s="6" t="n">
+        <v>-0.05822846291192134</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>-0.05492550846910299</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A20" s="1" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>-1,38</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="inlineStr">
-        <is>
-          <t>-3,3</t>
-        </is>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-2,37</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="6" t="n">
+        <v>-0.3826069048169575</v>
+      </c>
+      <c r="D20" s="6" t="n">
+        <v>-0.2740301769803253</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.2715996664095431</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>-4,73; 2,3</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>-6,92; 0,38</t>
-        </is>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
-        <is>
-          <t>-4,89; -0,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="6" t="n">
+        <v>0.6439950942234509</v>
+      </c>
+      <c r="D21" s="6" t="n">
+        <v>0.2600679906599299</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2248930703245449</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C22" s="2" t="inlineStr">
-        <is>
-          <t>-7,15%</t>
-        </is>
-      </c>
-      <c r="D22" s="2" t="inlineStr">
-        <is>
-          <t>-10,96%</t>
-        </is>
-      </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-9,57%</t>
-        </is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>-2.150791115173889</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>-1.057330388468458</v>
+      </c>
+      <c r="E22" s="5" t="n">
+        <v>-1.683182169130648</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>-23,22; 12,72</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>-21,75; 0,95</t>
-        </is>
-      </c>
-      <c r="E23" s="2" t="inlineStr">
-        <is>
-          <t>-18,64; -0,04</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>-7.587594866646083</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>-6.156061710446631</v>
+      </c>
+      <c r="E23" s="5" t="n">
+        <v>-5.332530893079081</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>3.410012228542817</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>3.666688271006132</v>
+      </c>
+      <c r="E24" s="5" t="n">
+        <v>1.830344228398673</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C25" s="6" t="n">
+        <v>-0.1095770374523779</v>
+      </c>
+      <c r="D25" s="6" t="n">
+        <v>-0.03500712656427621</v>
+      </c>
+      <c r="E25" s="6" t="n">
+        <v>-0.06668132978527476</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C26" s="6" t="n">
+        <v>-0.3327056193176475</v>
+      </c>
+      <c r="D26" s="6" t="n">
+        <v>-0.1905964690168118</v>
+      </c>
+      <c r="E26" s="6" t="n">
+        <v>-0.1968184302019041</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C27" s="6" t="n">
+        <v>0.2003657431502167</v>
+      </c>
+      <c r="D27" s="6" t="n">
+        <v>0.1333523834331738</v>
+      </c>
+      <c r="E27" s="6" t="n">
+        <v>0.08318237075085012</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A20:A23"/>
+  <mergeCells count="5">
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A10:A15"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
